--- a/CompareSelectivityPredictions/OUTPUT/SelProf_EvaluationResults_NewThreshold.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelProf_EvaluationResults_NewThreshold.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>473.4</v>
+        <v>474.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.577708763999663</v>
+        <v>3.701351104664349</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G2" t="n">
-        <v>200.6</v>
+        <v>201.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51657508881031</v>
+        <v>2.280350850198276</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>662.8</v>
+        <v>667.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.768288736283354</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E3" t="n">
-        <v>1792.6</v>
+        <v>1790.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2.302172886644268</v>
+        <v>1.923538406167134</v>
       </c>
       <c r="G3" t="n">
-        <v>1493.6</v>
+        <v>1494.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.61519230368573</v>
+        <v>3.563705936241093</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>715.2</v>
+        <v>710.6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.768288736283354</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E4" t="n">
-        <v>56.4</v>
+        <v>58.2</v>
       </c>
       <c r="F4" t="n">
-        <v>2.302172886644267</v>
+        <v>1.923538406167134</v>
       </c>
       <c r="G4" t="n">
-        <v>149.4</v>
+        <v>148.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.61519230368573</v>
+        <v>3.563705936241092</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.577708763999663</v>
+        <v>3.701351104664349</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="G5" t="n">
-        <v>66.40000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.51657508881031</v>
+        <v>2.280350850198276</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.594869109947644</v>
+        <v>0.5980104712041885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001588036742209744</v>
+        <v>0.002382055113314639</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9605235602094242</v>
+        <v>0.9596858638743455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001205326118661922</v>
+        <v>0.0009794914625062966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8870157068062827</v>
+        <v>0.8882722513089005</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001902188704145021</v>
+        <v>0.0007024297311517696</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.398281507679522</v>
+        <v>0.4005387833219387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001360362259024957</v>
+        <v>0.001916249736731758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.427013649883571</v>
+        <v>0.4204298941112191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00985283286686486</v>
+        <v>0.007788623515865158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5732223491862076</v>
+        <v>0.5766137602054622</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006372866643985659</v>
+        <v>0.003227645737307872</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8898496240601503</v>
+        <v>0.8924812030075188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006725016473683571</v>
+        <v>0.006957426888466813</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.6918032786885245</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.007331370418032107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7513108614232209</v>
+        <v>0.7558052434456929</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005680056512398132</v>
+        <v>0.008540639888383031</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4809600000000001</v>
+        <v>0.48432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002737334469881229</v>
+        <v>0.003083342342329193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9695199999999999</v>
+        <v>0.96852</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001231665539016177</v>
+        <v>0.001042592921518278</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9090800000000001</v>
+        <v>0.9097999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002809270367906915</v>
+        <v>0.002181742422927132</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5502680897330781</v>
+        <v>0.5529248500936711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002143067284565083</v>
+        <v>0.002616403388105189</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5270633453718694</v>
+        <v>0.522968700228329</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006749554451950557</v>
+        <v>0.005859489246526775</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6502581117888194</v>
+        <v>0.654123885158392</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002921375357607964</v>
+        <v>0.001197868947403589</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5908416703675096</v>
+        <v>0.5938771194381034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00143968810666124</v>
+        <v>0.002126181484210881</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7532326530444167</v>
+        <v>0.7509610918716131</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003661918497802721</v>
+        <v>0.003144744403569326</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7914410588088535</v>
+        <v>0.793749043158458</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0019668004330318</v>
+        <v>0.0004427513336059245</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6854182808254309</v>
+        <v>0.6884031559304647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002665677109798128</v>
+        <v>0.003264542425830662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8290108077915399</v>
+        <v>0.8301634024594596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006225453993089128</v>
+        <v>0.003580670252900561</v>
       </c>
       <c r="G12" t="n">
-        <v>0.83018981902567</v>
+        <v>0.8328021956729377</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002027690130865571</v>
+        <v>0.003199463433200544</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3429051012600933</v>
+        <v>0.3481224624148653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005369188938772609</v>
+        <v>0.006329323882765402</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5235042080579106</v>
+        <v>0.5203273312203753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006714170877778476</v>
+        <v>0.006301850158611581</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5919672246689779</v>
+        <v>0.5966307287198004</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00371345110915065</v>
+        <v>0.001959592886899962</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9187999999999998</v>
+        <v>0.9210799999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004289522117905464</v>
+        <v>0.004561469061607252</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9894999999999999</v>
+        <v>0.9896</v>
       </c>
       <c r="F14" t="n">
-        <v>1.241267076623637e-16</v>
+        <v>0.0002236067977499543</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9574400000000001</v>
+        <v>0.9582200000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008080841540335095</v>
+        <v>0.001285301521044794</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6854182808254308</v>
+        <v>0.6884031559304647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002665677109798177</v>
+        <v>0.003264542425830698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8290108077915399</v>
+        <v>0.8301634024594596</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0006225453993088549</v>
+        <v>0.00358067025290061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.83018981902567</v>
+        <v>0.8328021956729378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002027690130865571</v>
+        <v>0.003199463433200547</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>444.6</v>
+        <v>438</v>
       </c>
       <c r="D2" t="n">
-        <v>5.029910535983717</v>
+        <v>5.522680508593631</v>
       </c>
       <c r="E2" t="n">
         <v>47.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.923538406167135</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="G2" t="n">
-        <v>219</v>
+        <v>216.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2.073644135332772</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D3" t="n">
-        <v>4.949747468305833</v>
+        <v>4.183300132670378</v>
       </c>
       <c r="E3" t="n">
-        <v>1759.6</v>
+        <v>1753.4</v>
       </c>
       <c r="F3" t="n">
-        <v>3.361547262794322</v>
+        <v>5.029910535983717</v>
       </c>
       <c r="G3" t="n">
-        <v>1447</v>
+        <v>1449.6</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6332495807108</v>
+        <v>5.856620185738529</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D4" t="n">
-        <v>4.949747468305833</v>
+        <v>4.183300132670378</v>
       </c>
       <c r="E4" t="n">
-        <v>89.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3.361547262794322</v>
+        <v>5.029910535983716</v>
       </c>
       <c r="G4" t="n">
-        <v>196</v>
+        <v>193.4</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6332495807108</v>
+        <v>5.856620185738529</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>5.029910535983717</v>
+        <v>5.522680508593631</v>
       </c>
       <c r="E5" t="n">
         <v>13.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.923538406167135</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="G5" t="n">
-        <v>48</v>
+        <v>50.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2.073644135332772</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6149738219895288</v>
+        <v>0.6157068062827225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004149028849457372</v>
+        <v>0.004285525011451539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9462827225130891</v>
+        <v>0.9430366492146597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001639002706020789</v>
+        <v>0.002264057414705729</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8722513089005236</v>
+        <v>0.8723560209424084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003550958106348322</v>
+        <v>0.004028352683072539</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4069167003464937</v>
+        <v>0.4063016539680023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003672889003277122</v>
+        <v>0.003966719263104159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.348430593616201</v>
+        <v>0.3335425583811397</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00981145035405104</v>
+        <v>0.009126625000958004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5278168753912741</v>
+        <v>0.5283672335230635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008668516051857707</v>
+        <v>0.009728084713847644</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8357142857142856</v>
+        <v>0.8233082706766919</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009454719052601</v>
+        <v>0.01038097839961207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7836065573770492</v>
+        <v>0.7836065573770491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03153341649454318</v>
+        <v>0.02431540487572351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8202247191011235</v>
+        <v>0.8112359550561796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003745318352059934</v>
+        <v>0.007766457435703285</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.52976</v>
+        <v>0.5355399999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00357603131977337</v>
+        <v>0.003041874422128569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9516600000000001</v>
+        <v>0.9483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001831119875922933</v>
+        <v>0.002713853349022389</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8807</v>
+        <v>0.8822800000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004047838929601834</v>
+        <v>0.003554152500948718</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5473294330517873</v>
+        <v>0.5440913037629687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004642699272776883</v>
+        <v>0.0051217307055862</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4822837649149531</v>
+        <v>0.4677796447497699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01229361126312443</v>
+        <v>0.00894467011559009</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6422758288903437</v>
+        <v>0.639923130885778</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006034201280653694</v>
+        <v>0.008380500496877222</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6061771944564882</v>
+        <v>0.6059825801107241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003817480485529356</v>
+        <v>0.004036686524644843</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7269774057712075</v>
+        <v>0.7188431695546933</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006418301563673511</v>
+        <v>0.004871988938189078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7822577633710889</v>
+        <v>0.7811756950637089</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004040381093419558</v>
+        <v>0.005321981890173173</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.682733775658304</v>
+        <v>0.6794335257592456</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00547784262718867</v>
+        <v>0.005977000308442426</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8676280488345496</v>
+        <v>0.8659514668983677</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01542366543205608</v>
+        <v>0.01140852068193664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.850465372332059</v>
+        <v>0.8467622258543223</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002855109146740225</v>
+        <v>0.005476840096697437</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3311251747697097</v>
+        <v>0.3244542102821556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01003278778448533</v>
+        <v>0.01093516327225223</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5006651701412332</v>
+        <v>0.4884495869211999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.016746765915451</v>
+        <v>0.0111458850085105</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5894478144546504</v>
+        <v>0.5857709043892293</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007523680190741321</v>
+        <v>0.01112326448467</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.89308</v>
+        <v>0.88702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00571506780362228</v>
+        <v>0.006154023074379874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9925599999999999</v>
+        <v>0.9925400000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001073778375643696</v>
+        <v>0.0008502940667792483</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9679</v>
+        <v>0.9663999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006928203230275587</v>
+        <v>0.001435270009440716</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.682733775658304</v>
+        <v>0.6794335257592458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0054778426271887</v>
+        <v>0.005977000308442447</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8676280488345496</v>
+        <v>0.8659514668983677</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01542366543205604</v>
+        <v>0.01140852068193656</v>
       </c>
       <c r="G15" t="n">
-        <v>0.850465372332059</v>
+        <v>0.8467622258543225</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002855109146740225</v>
+        <v>0.005476840096697508</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" t="n">
-        <v>4.301162633521313</v>
+        <v>4.123105625617661</v>
       </c>
       <c r="E2" t="n">
-        <v>49.2</v>
+        <v>48.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G2" t="n">
-        <v>208.4</v>
+        <v>213</v>
       </c>
       <c r="H2" t="n">
-        <v>2.073644135332772</v>
+        <v>2.82842712474619</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>729.4</v>
+        <v>738.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61519230368573</v>
+        <v>13.53883303686104</v>
       </c>
       <c r="E3" t="n">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="F3" t="n">
         <v>2.645751311064591</v>
       </c>
       <c r="G3" t="n">
-        <v>1474</v>
+        <v>1472.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.06201920231798</v>
+        <v>5.890670590009257</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>648.6</v>
+        <v>639.4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61519230368573</v>
+        <v>13.53883303686104</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
         <v>2.645751311064591</v>
       </c>
       <c r="G4" t="n">
-        <v>169</v>
+        <v>170.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.06201920231798</v>
+        <v>5.890670590009257</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>4.301162633521313</v>
+        <v>4.123105625617661</v>
       </c>
       <c r="E5" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G5" t="n">
-        <v>58.6</v>
+        <v>54</v>
       </c>
       <c r="H5" t="n">
-        <v>2.073644135332772</v>
+        <v>2.82842712474619</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6201047120418848</v>
+        <v>0.6254450261780106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001720594421482202</v>
+        <v>0.008191667943710158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9472251308900524</v>
+        <v>0.9448167539267016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001249982867676759</v>
+        <v>0.001314125696126826</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8808376963350785</v>
+        <v>0.8826178010471203</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002329695859820605</v>
+        <v>0.003519944777795088</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4122840498529697</v>
+        <v>0.4163327486817689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00156118992643484</v>
+        <v>0.006304406307591906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3560969045294093</v>
+        <v>0.3432684080858489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005822875400930956</v>
+        <v>0.006788371815267972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5522399530698744</v>
+        <v>0.5559297927508301</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006310630458895321</v>
+        <v>0.009247545627124158</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8552631578947368</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008084892168273147</v>
+        <v>0.007750198544394108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8065573770491803</v>
+        <v>0.7967213114754098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007331370418032106</v>
+        <v>0.0186914004114613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7805243445692883</v>
+        <v>0.7977528089887641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007766457435703285</v>
+        <v>0.01059336001777597</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.52932</v>
+        <v>0.53596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003361844731691215</v>
+        <v>0.009827665032956699</v>
       </c>
       <c r="E9" t="n">
-        <v>0.95184</v>
+        <v>0.9496800000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001436314728741548</v>
+        <v>0.001427235089254756</v>
       </c>
       <c r="G9" t="n">
-        <v>0.89714</v>
+        <v>0.8964000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002486563894212231</v>
+        <v>0.003611786261671643</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5563624976116099</v>
+        <v>0.5604324693892582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002548082615041387</v>
+        <v>0.006205217315337751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4940248869904041</v>
+        <v>0.4797690012586995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004651280881619897</v>
+        <v>0.007847340638636539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6468119564854583</v>
+        <v>0.6552071355380078</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005179621691917531</v>
+        <v>0.007650520052405993</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6120922988812143</v>
+        <v>0.6170584783576215</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00158490409976988</v>
+        <v>0.006921502016915126</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7330926529233982</v>
+        <v>0.7253158425295178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002609070863696741</v>
+        <v>0.004160783780814833</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7875696848478688</v>
+        <v>0.7922373831597036</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003198661135486449</v>
+        <v>0.004766707455665703</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6922905049270491</v>
+        <v>0.6965685258138089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003042381436948068</v>
+        <v>0.007370505816588487</v>
       </c>
       <c r="E12" t="n">
-        <v>0.879211625247143</v>
+        <v>0.8732119266949792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003259498596785068</v>
+        <v>0.00913350596881995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8388318618768537</v>
+        <v>0.8470809084505596</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004004705320350365</v>
+        <v>0.005717793576169653</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3490657219475413</v>
+        <v>0.3563525753455993</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005892565496790688</v>
+        <v>0.01288825449459133</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5147820367738224</v>
+        <v>0.5009677277580246</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004382082973390555</v>
+        <v>0.01023880033697806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5901838062017201</v>
+        <v>0.6011192508402996</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006964067970422055</v>
+        <v>0.01026503596768785</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9045200000000001</v>
+        <v>0.9066799999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004472918510324135</v>
+        <v>0.005436634988667184</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99332</v>
+        <v>0.993</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002683281572999948</v>
+        <v>0.0006363961030678968</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9617599999999999</v>
+        <v>0.9646399999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001277888884058392</v>
+        <v>0.001818790807102361</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6922905049270491</v>
+        <v>0.6965685258138089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003042381436948068</v>
+        <v>0.007370505816588509</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8792116252471429</v>
+        <v>0.8732119266949792</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00325949859678508</v>
+        <v>0.009133505968819957</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8388318618768537</v>
+        <v>0.8470809084505596</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004004705320350368</v>
+        <v>0.005717793576169691</v>
       </c>
     </row>
   </sheetData>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>447</v>
+        <v>440.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.391164991562634</v>
+        <v>4.147288270665544</v>
       </c>
       <c r="E2" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5477225575051661</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4</v>
+        <v>228.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.880972058177587</v>
+        <v>2.792848008753788</v>
       </c>
     </row>
     <row r="3">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>778.6</v>
+        <v>767</v>
       </c>
       <c r="D3" t="n">
-        <v>6.985699678629192</v>
+        <v>6.244997998398398</v>
       </c>
       <c r="E3" t="n">
-        <v>1751.6</v>
+        <v>1757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.722287581247038</v>
+        <v>3.937003937005906</v>
       </c>
       <c r="G3" t="n">
-        <v>1436.8</v>
+        <v>1447.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.898717737923586</v>
+        <v>4.147288270665544</v>
       </c>
     </row>
     <row r="4">
@@ -1885,22 +1885,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>599.4</v>
+        <v>611</v>
       </c>
       <c r="D4" t="n">
-        <v>6.985699678629192</v>
+        <v>6.244997998398398</v>
       </c>
       <c r="E4" t="n">
-        <v>97.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>4.722287581247038</v>
+        <v>3.937003937005906</v>
       </c>
       <c r="G4" t="n">
-        <v>206.2</v>
+        <v>195.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.898717737923585</v>
+        <v>4.147288270665544</v>
       </c>
     </row>
     <row r="5">
@@ -1913,22 +1913,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>91.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.391164991562634</v>
+        <v>4.147288270665544</v>
       </c>
       <c r="E5" t="n">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5477225575051662</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="G5" t="n">
-        <v>34.6</v>
+        <v>38.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.880972058177587</v>
+        <v>2.792848008753789</v>
       </c>
     </row>
     <row r="6">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6416753926701571</v>
+        <v>0.6323560209424084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003323679633110752</v>
+        <v>0.002679891914569568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9419895287958114</v>
+        <v>0.9451308900523561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002410652237323858</v>
+        <v>0.00207451442472868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8739267015706809</v>
+        <v>0.8773821989528796</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003278005412041568</v>
+        <v>0.002323805342531147</v>
       </c>
     </row>
     <row r="7">
@@ -1969,22 +1969,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4271883181147739</v>
+        <v>0.419093969545148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002661710591338333</v>
+        <v>0.002213646191830434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32853896881171</v>
+        <v>0.3439760853785743</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01044281133791142</v>
+        <v>0.01046053980979435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5298830405671483</v>
+        <v>0.5386685155267079</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007244168739559425</v>
+        <v>0.005424700387343709</v>
       </c>
     </row>
     <row r="8">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8402255639097744</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006374370284892158</v>
+        <v>0.007795654644108171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7803278688524591</v>
+        <v>0.7901639344262295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008979058319756832</v>
+        <v>0.01795811663951366</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8704119850187266</v>
+        <v>0.8561797752808988</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0107901575212644</v>
+        <v>0.01046010490169961</v>
       </c>
     </row>
     <row r="9">
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.56502</v>
+        <v>0.5566000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005076120565944046</v>
+        <v>0.004527692569068729</v>
       </c>
       <c r="E9" t="n">
-        <v>0.94734</v>
+        <v>0.9502200000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002555973395792676</v>
+        <v>0.002146392322013852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8744999999999999</v>
+        <v>0.8808199999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002379075450674067</v>
+        <v>0.002488372962399328</v>
       </c>
     </row>
     <row r="10">
@@ -2053,22 +2053,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5663971775393668</v>
+        <v>0.5566307450869316</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00270911075029628</v>
+        <v>0.002759435102592791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4623083346546165</v>
+        <v>0.4792270257026601</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009318344395146717</v>
+        <v>0.01052246526108455</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6587369548986253</v>
+        <v>0.6612654735149468</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007565196030113328</v>
+        <v>0.005309336227176585</v>
       </c>
     </row>
     <row r="11">
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6305348612775381</v>
+        <v>0.6213040409475628</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002729655815857786</v>
+        <v>0.002262868606473113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.715824196011889</v>
+        <v>0.7251331225420603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005223383250639446</v>
+        <v>0.005706633971650351</v>
       </c>
       <c r="G11" t="n">
-        <v>0.790709036146789</v>
+        <v>0.7932033770999138</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004681835362362781</v>
+        <v>0.003244135178057094</v>
       </c>
     </row>
     <row r="12">
@@ -2109,22 +2109,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7026236672959613</v>
+        <v>0.6925876010781671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003124513779743384</v>
+        <v>0.00317758854520261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8638253730416974</v>
+        <v>0.8702036546117086</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004322432329205154</v>
+        <v>0.008918542392339896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8724549273845916</v>
+        <v>0.8685037646946185</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00628186640686296</v>
+        <v>0.005091752967159293</v>
       </c>
     </row>
     <row r="13">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3650153805298367</v>
+        <v>0.3471340654252015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005635207371280837</v>
+        <v>0.005868951151796283</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4832104575218179</v>
+        <v>0.4992884009961289</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009140393466571027</v>
+        <v>0.01222445927676195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6141637412138179</v>
+        <v>0.6147752864480193</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01057504398359798</v>
+        <v>0.007546648894830982</v>
       </c>
     </row>
     <row r="14">
@@ -2165,22 +2165,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9015799999999998</v>
+        <v>0.89374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003325206760488733</v>
+        <v>0.003934208942087349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9924200000000001</v>
+        <v>0.99278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002949576240750803</v>
+        <v>0.000622093240599839</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9765</v>
+        <v>0.9741199999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001978635893740921</v>
+        <v>0.001813008549345536</v>
       </c>
     </row>
     <row r="15">
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7026236672959613</v>
+        <v>0.6925876010781671</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003124513779743406</v>
+        <v>0.003177588545202622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8638253730416974</v>
+        <v>0.8702036546117086</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004322432329205096</v>
+        <v>0.008918542392339896</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8724549273845916</v>
+        <v>0.8685037646946185</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006281866406862969</v>
+        <v>0.00509175296715932</v>
       </c>
     </row>
   </sheetData>
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>464</v>
+        <v>463.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.449489742783178</v>
+        <v>2.774887385102322</v>
       </c>
       <c r="E2" t="n">
-        <v>44.2</v>
+        <v>44.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.30384048104053</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="G2" t="n">
-        <v>211.6</v>
+        <v>210.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.949358868961793</v>
+        <v>1.949358868961792</v>
       </c>
     </row>
     <row r="3">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712.8</v>
+        <v>716.4</v>
       </c>
       <c r="D3" t="n">
-        <v>7.726577508832744</v>
+        <v>3.646916505762094</v>
       </c>
       <c r="E3" t="n">
-        <v>1783</v>
+        <v>1782.4</v>
       </c>
       <c r="F3" t="n">
-        <v>6.041522986797286</v>
+        <v>3.781534080237808</v>
       </c>
       <c r="G3" t="n">
-        <v>1481.4</v>
+        <v>1480.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.911521443121589</v>
+        <v>3.96232255123179</v>
       </c>
     </row>
     <row r="4">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>665.2</v>
+        <v>661.6</v>
       </c>
       <c r="D4" t="n">
-        <v>7.726577508832744</v>
+        <v>3.646916505762094</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>6.041522986797286</v>
+        <v>3.781534080237807</v>
       </c>
       <c r="G4" t="n">
-        <v>161.6</v>
+        <v>162.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.911521443121589</v>
+        <v>3.96232255123179</v>
       </c>
     </row>
     <row r="5">
@@ -2361,19 +2361,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>68.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.449489742783178</v>
+        <v>2.774887385102322</v>
       </c>
       <c r="E5" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.30384048104053</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="G5" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.949358868961793</v>
@@ -2389,22 +2389,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6161256544502617</v>
+        <v>0.6179057591623037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004079068310111514</v>
+        <v>0.002755538715589691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9566492146596859</v>
+        <v>0.9566492146596858</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003039356078261781</v>
+        <v>0.002107289193455276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8863874345549737</v>
+        <v>0.8855497382198954</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002915059875827252</v>
+        <v>0.002300092422669011</v>
       </c>
     </row>
     <row r="7">
@@ -2417,22 +2417,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.410923169689447</v>
+        <v>0.4121211052834551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002917643021351744</v>
+        <v>0.002271287168349314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4019725820431667</v>
+        <v>0.4024452823792231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02140239488200925</v>
+        <v>0.01580018677704788</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5670239434990123</v>
+        <v>0.5649563305312804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007846248569092405</v>
+        <v>0.006426802672127907</v>
       </c>
     </row>
     <row r="8">
@@ -2445,22 +2445,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8721804511278195</v>
+        <v>0.8718045112781955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004604304027787952</v>
+        <v>0.005215953731395349</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7245901639344263</v>
+        <v>0.7344262295081967</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02137443411541851</v>
+        <v>0.02431540487572347</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7925093632958802</v>
+        <v>0.7887640449438202</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007300969546673345</v>
+        <v>0.00730096954667335</v>
       </c>
     </row>
     <row r="9">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.51728</v>
+        <v>0.51988</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005600178568581529</v>
+        <v>0.002648962060883463</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9643</v>
+        <v>0.9639599999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003273377460666594</v>
+        <v>0.002054993917265946</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9016400000000001</v>
+        <v>0.9013</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002346912865872949</v>
+        <v>0.002416609194718923</v>
       </c>
     </row>
     <row r="10">
@@ -2501,22 +2501,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5586387929540019</v>
+        <v>0.5596715701623495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002797576035654638</v>
+        <v>0.002726397404270295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.516746278321327</v>
+        <v>0.5198323063394459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01662038551800381</v>
+        <v>0.01512612585847635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6610610947922941</v>
+        <v>0.6583409713951474</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006858580414463638</v>
+        <v>0.005123358122188191</v>
       </c>
     </row>
     <row r="11">
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6094961361400624</v>
+        <v>0.6111028105867902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00338856518299775</v>
+        <v>0.002462795303168853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.747025868894597</v>
+        <v>0.7485658494405447</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008982185984970718</v>
+        <v>0.008009773271598681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7964084300426938</v>
+        <v>0.7948010547123948</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004225693009444921</v>
+        <v>0.003169237900929469</v>
       </c>
     </row>
     <row r="12">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6947259294826325</v>
+        <v>0.6958442004867029</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003384477273099873</v>
+        <v>0.003292020989322511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8444475968401173</v>
+        <v>0.8492033797622108</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01033979186894171</v>
+        <v>0.01217335033362436</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8470763493290112</v>
+        <v>0.8450210973349656</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004639470682557774</v>
+        <v>0.003829629416685945</v>
       </c>
     </row>
     <row r="13">
@@ -2585,22 +2585,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3551313257341532</v>
+        <v>0.3569001885574113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00588461836792233</v>
+        <v>0.006015032277663135</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5199193591100599</v>
+        <v>0.5241308875480314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01757821823831125</v>
+        <v>0.01775184059641137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6071037798907217</v>
+        <v>0.603755505368387</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009140185497900782</v>
+        <v>0.006853986559320101</v>
       </c>
     </row>
     <row r="14">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.91292</v>
+        <v>0.9130800000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002884787687161733</v>
+        <v>0.003408372045419928</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9906799999999999</v>
+        <v>0.9909799999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0007328028384224598</v>
+        <v>0.0008228000972289522</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9639599999999999</v>
+        <v>0.9632999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00129923054151292</v>
+        <v>0.001224744871391597</v>
       </c>
     </row>
     <row r="15">
@@ -2641,22 +2641,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6947259294826325</v>
+        <v>0.6958442004867029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003384477273099904</v>
+        <v>0.003292020989322516</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8444475968401173</v>
+        <v>0.8492033797622108</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0103397918689417</v>
+        <v>0.01217335033362438</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8470763493290112</v>
+        <v>0.8450210973349656</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004639470682557729</v>
+        <v>0.003829629416685907</v>
       </c>
     </row>
   </sheetData>
@@ -2725,13 +2725,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>479.2</v>
+        <v>479.8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.959919678390985</v>
+        <v>10.25670512396647</v>
       </c>
       <c r="E2" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="F2" t="n">
         <v>1.816590212458495</v>
@@ -2740,7 +2740,7 @@
         <v>232.6</v>
       </c>
       <c r="H2" t="n">
-        <v>9.262828941527529</v>
+        <v>8.264381404557755</v>
       </c>
     </row>
     <row r="3">
@@ -2753,22 +2753,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>734.8</v>
+        <v>737.6</v>
       </c>
       <c r="D3" t="n">
-        <v>31.05157000861631</v>
+        <v>29.15990397789403</v>
       </c>
       <c r="E3" t="n">
-        <v>1772.4</v>
+        <v>1773.4</v>
       </c>
       <c r="F3" t="n">
-        <v>14.09964538561165</v>
+        <v>14.43260198301055</v>
       </c>
       <c r="G3" t="n">
-        <v>1488</v>
+        <v>1486.4</v>
       </c>
       <c r="H3" t="n">
-        <v>20.22374841615668</v>
+        <v>17.47283606058273</v>
       </c>
     </row>
     <row r="4">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>643.2</v>
+        <v>640.4</v>
       </c>
       <c r="D4" t="n">
-        <v>31.05157000861631</v>
+        <v>29.15990397789403</v>
       </c>
       <c r="E4" t="n">
-        <v>76.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>14.09964538561165</v>
+        <v>14.43260198301055</v>
       </c>
       <c r="G4" t="n">
-        <v>155</v>
+        <v>156.6</v>
       </c>
       <c r="H4" t="n">
-        <v>20.22374841615668</v>
+        <v>17.47283606058273</v>
       </c>
     </row>
     <row r="5">
@@ -2809,13 +2809,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.8</v>
+        <v>52.2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.959919678390985</v>
+        <v>10.25670512396647</v>
       </c>
       <c r="E5" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="F5" t="n">
         <v>1.816590212458495</v>
@@ -2824,7 +2824,7 @@
         <v>34.4</v>
       </c>
       <c r="H5" t="n">
-        <v>9.262828941527529</v>
+        <v>8.264381404557755</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6356020942408377</v>
+        <v>0.6373821989528796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01268486014616305</v>
+        <v>0.01152189378304138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9543455497382199</v>
+        <v>0.9549738219895287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006698706848821767</v>
+        <v>0.006663833539977944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9008376963350786</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006812321123277155</v>
+        <v>0.005390382272768064</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4271438686455502</v>
+        <v>0.4284835764084581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008543112098573667</v>
+        <v>0.007570389227104561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4008104494240332</v>
+        <v>0.4052030264179399</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04127215957964361</v>
+        <v>0.04190806085805096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6013691773330518</v>
+        <v>0.5985955275836382</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02294945520163253</v>
+        <v>0.01916883684694082</v>
       </c>
     </row>
     <row r="8">
@@ -2893,13 +2893,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9007518796992482</v>
+        <v>0.9018796992481203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01872165353081012</v>
+        <v>0.0192795209097114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8262295081967214</v>
+        <v>0.8295081967213115</v>
       </c>
       <c r="F8" t="n">
         <v>0.02978016741735237</v>
@@ -2908,7 +2908,7 @@
         <v>0.8711610486891386</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03469224322669487</v>
+        <v>0.03095273934291294</v>
       </c>
     </row>
     <row r="9">
@@ -2921,22 +2921,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.53326</v>
+        <v>0.5352600000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02254524340077084</v>
+        <v>0.02117481995200903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9585799999999999</v>
+        <v>0.9591199999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007603749075291739</v>
+        <v>0.007795960492460187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9056599999999999</v>
+        <v>0.9046799999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01232712456333592</v>
+        <v>0.01061706174042516</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5793673119861652</v>
+        <v>0.5808429114817125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006246985714892857</v>
+        <v>0.005693252984273357</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5381771125921166</v>
+        <v>0.5426646908229531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.028858801834079</v>
+        <v>0.02729170521360628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7108189381895051</v>
+        <v>0.7090228706181861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009748338786434291</v>
+        <v>0.006354719331753003</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6288722909026629</v>
+        <v>0.6305705180118346</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009932280543924581</v>
+        <v>0.008996302628416494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7570780628023374</v>
+        <v>0.7594893610644755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01602433518261744</v>
+        <v>0.01524457360264458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8254773173592479</v>
+        <v>0.8243151919483749</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006594761240821949</v>
+        <v>0.004525820313477687</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7169942272226285</v>
+        <v>0.718574102163973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007218475716606679</v>
+        <v>0.006647100621114249</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8924008546932768</v>
+        <v>0.8943106153968916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01229378582728028</v>
+        <v>0.01126972679500721</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8884107130238146</v>
+        <v>0.8879237988424389</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01238009601459898</v>
+        <v>0.01073730371086554</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3954868240595441</v>
+        <v>0.3981868422307576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01225316711412014</v>
+        <v>0.01143349355681479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5558778895254968</v>
+        <v>0.5603137917647633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02495596661640228</v>
+        <v>0.0215493262747159</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6703746489649169</v>
+        <v>0.6683631897690713</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01213205742832526</v>
+        <v>0.007918944683024792</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.93326</v>
+        <v>0.93424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01019671515734358</v>
+        <v>0.01033358601841588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9940800000000001</v>
+        <v>0.9942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009833615815151697</v>
+        <v>0.0009772410142846093</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9775</v>
+        <v>0.97746</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00568858506133116</v>
+        <v>0.005084584545466814</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7169942272226284</v>
+        <v>0.718574102163973</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007218475716606731</v>
+        <v>0.006647100621114242</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8924008546932768</v>
+        <v>0.8943106153968916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0122937858272803</v>
+        <v>0.0112697267950072</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8884107130238146</v>
+        <v>0.8879237988424391</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01238009601459894</v>
+        <v>0.01073730371086562</v>
       </c>
     </row>
   </sheetData>
